--- a/telebot-format/dist/users.xlsx
+++ b/telebot-format/dist/users.xlsx
@@ -460,7 +460,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">

--- a/telebot-format/dist/users.xlsx
+++ b/telebot-format/dist/users.xlsx
@@ -460,7 +460,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">

--- a/telebot-format/dist/users.xlsx
+++ b/telebot-format/dist/users.xlsx
@@ -460,7 +460,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">

--- a/telebot-format/dist/users.xlsx
+++ b/telebot-format/dist/users.xlsx
@@ -460,7 +460,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
